--- a/Assets/Documents/Database/Wave Game/DataXmlPlay.xlsx
+++ b/Assets/Documents/Database/Wave Game/DataXmlPlay.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Map1" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Map9" sheetId="16" r:id="rId9"/>
     <sheet name="Map10" sheetId="17" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -109,9 +109,6 @@
     <t>1-2-3-3-4</t>
   </si>
   <si>
-    <t>Amy-Orc-Creep-Maku-WildBoar</t>
-  </si>
-  <si>
     <t>6-6-5-6-4</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>2.5-2.5-2.5-2.5-2.0</t>
   </si>
   <si>
-    <t>Wolf-Kukan-Amy-RedBull-OrcBlack</t>
-  </si>
-  <si>
     <t>2-2-3-3-4-4</t>
   </si>
   <si>
@@ -139,30 +133,6 @@
     <t>2-3-4-4-5-5</t>
   </si>
   <si>
-    <t>Kukan-Amy-RedBull-Zombies2-Zombies1</t>
-  </si>
-  <si>
-    <t>Kukan-Orc-Zombies2-Zombies1-Orc</t>
-  </si>
-  <si>
-    <t>Wolf-Orc-Zombies2-Creep-Maku</t>
-  </si>
-  <si>
-    <t>RedBull-Orc-Creep-WildBoar-Buffalo</t>
-  </si>
-  <si>
-    <t>Zombies2-Zombies1-Creep-Maku-Tyni-WildBoar</t>
-  </si>
-  <si>
-    <t>Zombies2-Zombies1-Creep-Tyni-Spider-WildBoar</t>
-  </si>
-  <si>
-    <t>Zombies1-Creep-Tyni-Spider-WildBoar-Iron</t>
-  </si>
-  <si>
-    <t>Zombies1-Creep-Spider-WildBoar-Buffalo-Axes</t>
-  </si>
-  <si>
     <t>2.0-2.0-2.5-2.5-2.0</t>
   </si>
   <si>
@@ -202,12 +172,6 @@
     <t>1-2-2-2-2-1</t>
   </si>
   <si>
-    <t>Kukan-Orc-Zombies2-Zombies1-Orc-Amy</t>
-  </si>
-  <si>
-    <t>RedBull-Kukan-Amy-RedBull-Zombies2-Zombies1</t>
-  </si>
-  <si>
     <t>1.5-2.0-2.0-2.5-2.5-2.0</t>
   </si>
   <si>
@@ -235,18 +199,12 @@
     <t>1-2-3-4-5-5</t>
   </si>
   <si>
-    <t>RedBull-Orc-Creep-WildBoar-Buffalo-Axes</t>
-  </si>
-  <si>
     <t>1.0-1.5-1.5-2.0-2.5-2.0</t>
   </si>
   <si>
     <t>8-6-5-6-3-2</t>
   </si>
   <si>
-    <t>Zombies2-Creep-Bat-Spider-WildBoar-Iron</t>
-  </si>
-  <si>
     <t>10-6-5-6-5-6</t>
   </si>
   <si>
@@ -268,9 +226,6 @@
     <t>2-3-3-3-4-4</t>
   </si>
   <si>
-    <t>Zombies2-Creep-Maku-Tyni-WildBoar-Iron</t>
-  </si>
-  <si>
     <t>1.5-2.0-2.0-2.0-2.5-2.0</t>
   </si>
   <si>
@@ -292,45 +247,30 @@
     <t>10-6-5-3-5-5-3-3</t>
   </si>
   <si>
-    <t>Wolf-Kukan-Amy-RedBull-OrcBlack-Scorpion</t>
-  </si>
-  <si>
     <t>1-2-2-2-3-4</t>
   </si>
   <si>
     <t>1-1-2-1-2-2</t>
   </si>
   <si>
-    <t>Amy-Kukan-Orc-RedBull-Zombies2-Zombies1</t>
-  </si>
-  <si>
     <t>8-6-5-8-6-4</t>
   </si>
   <si>
     <t>1-2-3-4-4-5</t>
   </si>
   <si>
-    <t>Furi-Orc-Maku-Iron-Spider-Axes</t>
-  </si>
-  <si>
     <t>1.5-2.0-2.5-2.0-2.0-2.5</t>
   </si>
   <si>
     <t>1-2-3-4-4-4</t>
   </si>
   <si>
-    <t>RedBull-Orc-Creep-Iron-Spider-Lava</t>
-  </si>
-  <si>
     <t>1.0-1.5-1.5-2.5-2.5-2.0</t>
   </si>
   <si>
     <t>8-6-5-6-3-4</t>
   </si>
   <si>
-    <t>Zombies1-Bat-Maku-Spider-Lava-Iron</t>
-  </si>
-  <si>
     <t>2-3-4-3-4-4</t>
   </si>
   <si>
@@ -340,18 +280,12 @@
     <t>1-3-3-4-4-5-5</t>
   </si>
   <si>
-    <t>Wolf-Creep-Tyni-Spider-Iron-Axes-Dragon</t>
-  </si>
-  <si>
     <t>1.0-1.5-2.0-2.0-2.0-2.5-2.5</t>
   </si>
   <si>
     <t>1-1-3-3-4-4-3-3</t>
   </si>
   <si>
-    <t>Furi-Amy-Tyni-Creep-Spider-WildBoar-Bat-Creep</t>
-  </si>
-  <si>
     <t>1.2-1.0-2.0-2.0-2.0-2.0-1.5-1.5</t>
   </si>
   <si>
@@ -361,12 +295,6 @@
     <t>1-1-3-3-4-4-4-5</t>
   </si>
   <si>
-    <t>Wolf-RedBull-Tyni-Creep-Spider-Lava-Iron-Axes</t>
-  </si>
-  <si>
-    <t>RedBull-Kukan-Tyni-Creep-Spider-Dragon-Blood-Axes</t>
-  </si>
-  <si>
     <t>1-1-3-3-4-5-6-5</t>
   </si>
   <si>
@@ -376,18 +304,12 @@
     <t>Map 3</t>
   </si>
   <si>
-    <t>Haki-Wolf-Amy-RedBull-OrcBlack-Scorpion</t>
-  </si>
-  <si>
     <t>2.5-2.5-2.5-2.0-2.0-1.5-1.5</t>
   </si>
   <si>
     <t>1-1-1-2-2-2</t>
   </si>
   <si>
-    <t>Amy-Furi-RedBull-Orc-Zombies2-Zombies1</t>
-  </si>
-  <si>
     <t>2.5-2.0-1.5-2.5-2.5-2.0</t>
   </si>
   <si>
@@ -400,15 +322,9 @@
     <t>8-6-5-5-6-10</t>
   </si>
   <si>
-    <t>Furi-Orc-Zombies1-Zombies2-Thor-Amy</t>
-  </si>
-  <si>
     <t>1-2-2-3-3-3</t>
   </si>
   <si>
-    <t>Kukan-Orc-Zombies2-Bee-Creep-Iron</t>
-  </si>
-  <si>
     <t>2.5-2.5-2.0-2.0-1.5-1.5</t>
   </si>
   <si>
@@ -418,27 +334,18 @@
     <t>2.5-2.0-2.5-1.8-2.0-2.0</t>
   </si>
   <si>
-    <t>Scorpion-Orc-Zombies2-Zombies1-Orc-Amy</t>
-  </si>
-  <si>
     <t>2.0-2.5-2.0-2.0-1.5-1.0</t>
   </si>
   <si>
     <t>10-6-5-6-6-8</t>
   </si>
   <si>
-    <t>RedBull-Orc-Soki-Zombies1-Creep-Iron</t>
-  </si>
-  <si>
     <t>1.5-2.0-1.5-1.5-2.5-2.5</t>
   </si>
   <si>
     <t>8-6-5-6-4-4</t>
   </si>
   <si>
-    <t>OrcBlack-Thor-Maku-Iron-Spider-Axes</t>
-  </si>
-  <si>
     <t>1.5-2.0-2.5-2.5-2.5-2.5</t>
   </si>
   <si>
@@ -454,9 +361,6 @@
     <t>2-3-3-4-4-5-5</t>
   </si>
   <si>
-    <t>Soki-Creep-Tyni-Spider-Iron-Axes-Dragon</t>
-  </si>
-  <si>
     <t>6-6-5-6-5-6</t>
   </si>
   <si>
@@ -469,21 +373,12 @@
     <t>6-5-5-5-5-4-4</t>
   </si>
   <si>
-    <t>OrcBlack-Amy-Tyni-Creep-Spider-Iron-Bat-Creep</t>
-  </si>
-  <si>
     <t>10-6-5-5-4-4-6-5</t>
   </si>
   <si>
-    <t>Haki-RedBull-Tyni-Creep-Spider-Lava-Iron-Axes</t>
-  </si>
-  <si>
     <t>10-6-5-5-5-5-4-3</t>
   </si>
   <si>
-    <t>OrcBlack-Kukan-Amy-RedBull-Amy-Scorpion</t>
-  </si>
-  <si>
     <t>2.0-2.0-2.0-2.0-1.5-1.5-1.5</t>
   </si>
   <si>
@@ -496,18 +391,12 @@
     <t>8-6-5-6-6-10</t>
   </si>
   <si>
-    <t>Amy-Orc-Zombies2-Zombies1-Creep-Maku</t>
-  </si>
-  <si>
     <t>8-6-6-5-6-5</t>
   </si>
   <si>
     <t>1.0-2.0-1.5-1.5-2.5-2.5</t>
   </si>
   <si>
-    <t>Kukan-Orc-Creep-Maku-Tyni-WildBoar</t>
-  </si>
-  <si>
     <t>1.2-2.0-2.5-2.0-2.0-2.6</t>
   </si>
   <si>
@@ -523,27 +412,12 @@
     <t>1.6-2.0-2.0-2.5-2.5-2.0</t>
   </si>
   <si>
-    <t>Amy-Creep-Tyni-Spider-WildBoar-Iron-Bat</t>
-  </si>
-  <si>
     <t>10-5-6-5-6-4-8</t>
   </si>
   <si>
     <t>1.0-1.5-2.0-2.0-2.0-2.0-1.5</t>
   </si>
   <si>
-    <t>Kukan-Furi-Tyni-Creep-Spider-WildBoar-Buffalo-Axes</t>
-  </si>
-  <si>
-    <t>Amy-OrcBlack-Tyni-Creep-Spider-Lava-Iron-Axes</t>
-  </si>
-  <si>
-    <t>Amy-Kukan-OrcBlack-RedBull-Furi-Scorpion</t>
-  </si>
-  <si>
-    <t>Amy-Furi-RedBull-Orc-Thor-Soki</t>
-  </si>
-  <si>
     <t>10-6-6-6-8-6</t>
   </si>
   <si>
@@ -556,12 +430,6 @@
     <t>Scorpion-Orc-Creep-Iron-Spider-Lava</t>
   </si>
   <si>
-    <t>Scorpion-Orc-Zombies1-Zombies2-Thor-Wolf</t>
-  </si>
-  <si>
-    <t>Furi-Orc-Maku-WildBoar-Spider-Axes</t>
-  </si>
-  <si>
     <t>10-6-5-4-4-3</t>
   </si>
   <si>
@@ -571,36 +439,21 @@
     <t>5-6-5-5-4-4</t>
   </si>
   <si>
-    <t>Wolf-Crow-Tyni-Spider-Iron-Buffalo-Dragon</t>
-  </si>
-  <si>
-    <t>Haki-Amy-Crow-Creep-Spider-WildBoar-Bat-Creep</t>
-  </si>
-  <si>
     <t>1-1-2-2-3-4-5-4-5</t>
   </si>
   <si>
     <t>1-1-2-2-3-4-5-5-5</t>
   </si>
   <si>
-    <t>RedBull-Kukan-Bee-Orc-Bat-WildBoar-Dragon-Spider-Axes</t>
-  </si>
-  <si>
     <t>1.0-1.0-1.5-1.2-1.5-2.0-2.5-2.0-2.0</t>
   </si>
   <si>
     <t>10-8-5-5-4-4-3-4-4</t>
   </si>
   <si>
-    <t>Amy-Scorpion-Bee-Thor-Bat-Iron-Axes-Buffalo-Dragon</t>
-  </si>
-  <si>
     <t>2-2-3-4-5-5-6-6-6</t>
   </si>
   <si>
-    <t>Orc-Soki-Creep-WildBoar-Axes-Lava-Blood-EvilDemon-Snow</t>
-  </si>
-  <si>
     <t>1.0-1.0-1.5-1.2-1.5-2.0-2.5-2.5-2.5</t>
   </si>
   <si>
@@ -610,24 +463,9 @@
     <t>Map 5</t>
   </si>
   <si>
-    <t>Furi-Orc-Maku-Lava-Spider-Axes</t>
-  </si>
-  <si>
     <t>Bee-Creep-Bat-Spider-Lava-Iron</t>
   </si>
   <si>
-    <t>RedBull-Kukan-Bee-Orc-Bat-Lava-Dragon-Spider-Axes</t>
-  </si>
-  <si>
-    <t>Orc-Soki-Creep-Iron-Axes-Lava-Blood-EvilDemon-Snow</t>
-  </si>
-  <si>
-    <t>Amy-Scorpion-Bee-Thor-Bat-Iron-Axes-KingKong-Dragon</t>
-  </si>
-  <si>
-    <t>Wolf-Bat-Tyni-Spider-Iron-KingKong-Dragon</t>
-  </si>
-  <si>
     <t>Haki-Amy-Thor-Creep-Spider-Iron-Bat-Creep</t>
   </si>
   <si>
@@ -637,9 +475,6 @@
     <t>2.5-2.5-2.5-2.0-2.0-2.0-2.5</t>
   </si>
   <si>
-    <t>Wolf-Kukan-OrcBlack-RedBull-Furi-Scorpion</t>
-  </si>
-  <si>
     <t>Map 8</t>
   </si>
   <si>
@@ -649,55 +484,220 @@
     <t>1-2-3-4-4-5-5-6-6</t>
   </si>
   <si>
-    <t>Amy-RedBull-Bee-Thor-Bat-Maku-Iron-Lava-Axes</t>
-  </si>
-  <si>
     <t>1.0-1.0-1.5-1.2-2.0-2.0-2.5-2.5-2.5</t>
   </si>
   <si>
     <t>1-1-2-3-3-3-4-4-5</t>
   </si>
   <si>
-    <t>Haki-Wolf-Orc-Creep-Bat-Maku-Iron-Lava-KingKong</t>
-  </si>
-  <si>
-    <t>Soki-Bee-Bat-Iron-Lava-Axes-Dragon-Blood-Snow</t>
-  </si>
-  <si>
     <t>1.0-1.0-1.5-1.2-1.5-2.0-2.5-3.5-3.0</t>
   </si>
   <si>
     <t>10-8-5-5-4-4-5-4-3</t>
   </si>
   <si>
-    <t>Amy-Kukan-OrcBlack-Haki-Furi-Scorpion</t>
-  </si>
-  <si>
-    <t>Amy-OrcBlack-RedBull-Orc-Thor-Soki</t>
-  </si>
-  <si>
-    <t>RedBull-Orc-Zombies1-Zombies2-Thor-Wolf</t>
-  </si>
-  <si>
-    <t>Furi-Orc-Zombies2-Bee-Creep-Iron</t>
-  </si>
-  <si>
-    <t>Furi-Amy-Orc-Creep-Bat-Maku-Iron-Lava-KingKong</t>
-  </si>
-  <si>
     <t>Scorpion-Amy-Thor-Creep-Spider-Iron-Bat-Creep</t>
   </si>
   <si>
-    <t>Amy-RedBull-Tyni-Creep-Spider-Lava-Iron-Axes</t>
-  </si>
-  <si>
-    <t>Haki-Wolf-Orc-Creep-Bat-Maku-WildBoar-Lava-KingKong</t>
-  </si>
-  <si>
     <t>Tower Used</t>
   </si>
   <si>
     <t>Architect-Ice</t>
+  </si>
+  <si>
+    <t>Amy-Kukan-Orc Black-Haki-Furi-Scorpion</t>
+  </si>
+  <si>
+    <t>Wolf-Kukan-Amy-Red Bull-Orc Black</t>
+  </si>
+  <si>
+    <t>Kukan-Amy-Red Bull-Fat Zombie-Thin Zombie</t>
+  </si>
+  <si>
+    <t>Kukan-Orc-Fat Zombie-Thin Zombie-Orc</t>
+  </si>
+  <si>
+    <t>Wolf-Orc-Fat Zombie-Creep-Maku</t>
+  </si>
+  <si>
+    <t>Amy-Orc-Creep-Maku-Wild Boar</t>
+  </si>
+  <si>
+    <t>Red Bull-Orc-Creep-Wild Boar-Buffalo</t>
+  </si>
+  <si>
+    <t>Fat Zombie-Thin Zombie-Creep-Maku-Tiny-Wild Boar</t>
+  </si>
+  <si>
+    <t>Fat Zombie-Thin Zombie-Creep-Tiny-Spider-Wild Boar</t>
+  </si>
+  <si>
+    <t>Thin Zombie-Creep-Tiny-Spider-Wild Boar-Iron</t>
+  </si>
+  <si>
+    <t>Thin Zombie-Creep-Spider-Wild Boar-Buffalo-Axe</t>
+  </si>
+  <si>
+    <t>Orc Black-Kukan-Amy-Red Bull-Amy-Scorpion</t>
+  </si>
+  <si>
+    <t>Red Bull-Kukan-Amy-Red Bull-Fat Zombie-Thin Zombie</t>
+  </si>
+  <si>
+    <t>Kukan-Orc-Fat Zombie-Thin Zombie-Orc-Amy</t>
+  </si>
+  <si>
+    <t>Amy-Orc-Fat Zombie-Thin Zombie-Creep-Maku</t>
+  </si>
+  <si>
+    <t>Kukan-Orc-Creep-Maku-Tiny-Wild Boar</t>
+  </si>
+  <si>
+    <t>Red Bull-Orc-Creep-Wild Boar-Buffalo-Axe</t>
+  </si>
+  <si>
+    <t>Fat Zombie-Creep-Maku-Tiny-Wild Boar-Iron</t>
+  </si>
+  <si>
+    <t>Fat Zombie-Creep-Bat-Spider-Wild Boar-Iron</t>
+  </si>
+  <si>
+    <t>Amy-Creep-Tiny-Spider-Wild Boar-Iron-Bat</t>
+  </si>
+  <si>
+    <t>Kukan-Furi-Tiny-Creep-Spider-Wild Boar-Buffalo-Axe</t>
+  </si>
+  <si>
+    <t>Wolf-Kukan-Amy-Red Bull-Orc Black-Scorpion</t>
+  </si>
+  <si>
+    <t>Amy-Kukan-Orc-Red Bull-Fat Zombie-Thin Zombie</t>
+  </si>
+  <si>
+    <t>Scorpion-Orc-Fat Zombie-Thin Zombie-Orc-Amy</t>
+  </si>
+  <si>
+    <t>Red Bull-Orc-Soki-Thin Zombie-Creep-Iron</t>
+  </si>
+  <si>
+    <t>Orc Black-Thor-Maku-Iron-Spider-Axe</t>
+  </si>
+  <si>
+    <t>Red Bull-Orc-Creep-Iron-Spider-Lava</t>
+  </si>
+  <si>
+    <t>Thin Zombie-Bat-Maku-Spider-Lava-Iron</t>
+  </si>
+  <si>
+    <t>Soki-Creep-Tiny-Spider-Iron-Axe-Blue Dragon</t>
+  </si>
+  <si>
+    <t>Orc Black-Amy-Tiny-Creep-Spider-Iron-Bat-Creep</t>
+  </si>
+  <si>
+    <t>Haki-Red Bull-Tiny-Creep-Spider-Lava-Iron-Axe</t>
+  </si>
+  <si>
+    <t>Red Bull-Kukan-Tiny-Creep-Spider-Blur Dragon-Blood-Axe</t>
+  </si>
+  <si>
+    <t>Haki-Wolf-Amy-Red Bull-Orc Black-Scorpion</t>
+  </si>
+  <si>
+    <t>Amy-Furi-Red Bull-Orc-Fat Zombie-Thin Zombie</t>
+  </si>
+  <si>
+    <t>Furi-Orc-Thin Zombie-Fat Zombie-Thor-Amy</t>
+  </si>
+  <si>
+    <t>Kukan-Orc-Fat Zombie-Bee-Creep-Iron</t>
+  </si>
+  <si>
+    <t>Furi-Orc-Maku-Iron-Spider-Axe</t>
+  </si>
+  <si>
+    <t>Wolf-Creep-Tiny-Spider-Iron-Axe-Blur Dragon</t>
+  </si>
+  <si>
+    <t>Furi-Amy-Tiny-Creep-Spider-Wild Boar-Bat-Creep</t>
+  </si>
+  <si>
+    <t>Wolf-Red Bull-Tiny-Creep-Spider-Lava-Iron-Axe</t>
+  </si>
+  <si>
+    <t>Amy-Kukan-Orc Black-Red Bull-Furi-Scorpion</t>
+  </si>
+  <si>
+    <t>Amy-Furi-Red Bull-Orc-Thor-Soki</t>
+  </si>
+  <si>
+    <t>Scorpion-Orc-Thin Zombie-Fat Zombie-Thor-Wolf</t>
+  </si>
+  <si>
+    <t>Furi-Orc-Maku-Wild Boar-Spider-Axe</t>
+  </si>
+  <si>
+    <t>Wolf-Crow-Tiny-Spider-Iron-Buffalo-Blur Dragon</t>
+  </si>
+  <si>
+    <t>Haki-Amy-Crow-Creep-Spider-Wild Boar-Bat-Creep</t>
+  </si>
+  <si>
+    <t>Amy-Orc Black-Tiny-Creep-Spider-Lava-Iron-Axe</t>
+  </si>
+  <si>
+    <t>Red Bull-Kukan-Bee-Orc-Bat-Wild Boar-Blur Dragon-Spider-Axe</t>
+  </si>
+  <si>
+    <t>Amy-Scorpion-Bee-Thor-Bat-Iron-Axe-Buffalo-Blur Dragon</t>
+  </si>
+  <si>
+    <t>Orc-Soki-Creep-Wild Boar-Axe-Lava-Blood-Evil Demon-Snow</t>
+  </si>
+  <si>
+    <t>Furi-Orc-Maku-Lava-Spider-Axe</t>
+  </si>
+  <si>
+    <t>Wolf-Bat-Tiny-Spider-Iron-King Kong-Blur Dragon</t>
+  </si>
+  <si>
+    <t>Red Bull-Kukan-Bee-Orc-Bat-Lava-Blur Dragon-Spider-Axe</t>
+  </si>
+  <si>
+    <t>Amy-Scorpion-Bee-Thor-Bat-Iron-Axe-King Kong-Blur Dragon</t>
+  </si>
+  <si>
+    <t>Orc-Soki-Creep-Iron-Axe-Lava-Blood-Evil Demon-Snow</t>
+  </si>
+  <si>
+    <t>Wolf-Kukan-Orc Black-Red Bull-Furi-Scorpion</t>
+  </si>
+  <si>
+    <t>Amy-Red Bull-Bee-Thor-Bat-Maku-Iron-Lava-Axe</t>
+  </si>
+  <si>
+    <t>Haki-Wolf-Orc-Creep-Bat-Maku-Wild Boar-Lava-King Kong</t>
+  </si>
+  <si>
+    <t>Soki-Bee-Bat-Iron-Lava-Axe-Blur Dragon-Blood-Snow</t>
+  </si>
+  <si>
+    <t>Amy-Red Bull-Tiny-Creep-Spider-Lava-Iron-Axe</t>
+  </si>
+  <si>
+    <t>Furi-Amy-Orc-Creep-Bat-Maku-Iron-Lava-King Kong</t>
+  </si>
+  <si>
+    <t>Amy-Orc Black-Red Bull-Orc-Thor-Soki</t>
+  </si>
+  <si>
+    <t>Red Bull-Orc-Thin Zombie-Fat Zombie-Thor-Wolf</t>
+  </si>
+  <si>
+    <t>Furi-Orc-Fat Zombie-Bee-Creep-Iron</t>
+  </si>
+  <si>
+    <t>Haki-Wolf-Orc-Creep-Bat-Maku-Iron-Lava-King Kong</t>
   </si>
 </sst>
 </file>
@@ -966,295 +966,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1769,6 +1480,23 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2283,6 +2011,23 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2797,6 +2542,23 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3311,6 +3073,23 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3825,6 +3604,23 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4339,6 +4135,23 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4853,6 +4666,23 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5231,6 +5061,159 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5970,6 +5953,23 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -6130,210 +6130,210 @@
     <tableColumn id="4" name="Heart" dataDxfId="194"/>
     <tableColumn id="5" name="Star total" dataDxfId="193"/>
     <tableColumn id="6" name="Total wave" dataDxfId="192"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="17"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table4322101215" displayName="Table4322101215" ref="A1:G3" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table4322101215" displayName="Table4322101215" ref="A1:G3" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="118"/>
-    <tableColumn id="2" name="Name" dataDxfId="117"/>
-    <tableColumn id="3" name="Money" dataDxfId="116"/>
-    <tableColumn id="4" name="Heart" dataDxfId="115"/>
-    <tableColumn id="5" name="Star total" dataDxfId="114"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="113"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="5"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="106"/>
+    <tableColumn id="2" name="Name" dataDxfId="105"/>
+    <tableColumn id="3" name="Money" dataDxfId="104"/>
+    <tableColumn id="4" name="Heart" dataDxfId="103"/>
+    <tableColumn id="5" name="Star total" dataDxfId="102"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="101"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table198111413" displayName="Table198111413" ref="A10:I25" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table198111413" displayName="Table198111413" ref="A10:I25" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="A10:I25"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="110"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="109"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="108"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="107"/>
-    <tableColumn id="11" name="Level" dataDxfId="106"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="105"/>
-    <tableColumn id="9" name="Time" dataDxfId="104"/>
-    <tableColumn id="10" name="Number" dataDxfId="103"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="102"/>
+    <tableColumn id="1" name="Wave" dataDxfId="97"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="96"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="95"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="94"/>
+    <tableColumn id="11" name="Level" dataDxfId="93"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="92"/>
+    <tableColumn id="9" name="Time" dataDxfId="91"/>
+    <tableColumn id="10" name="Number" dataDxfId="90"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table432210121516" displayName="Table432210121516" ref="A1:G3" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table432210121516" displayName="Table432210121516" ref="A1:G3" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="99"/>
-    <tableColumn id="2" name="Name" dataDxfId="98"/>
-    <tableColumn id="3" name="Money" dataDxfId="97"/>
-    <tableColumn id="4" name="Heart" dataDxfId="96"/>
-    <tableColumn id="5" name="Star total" dataDxfId="95"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="94"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="4"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="86"/>
+    <tableColumn id="2" name="Name" dataDxfId="85"/>
+    <tableColumn id="3" name="Money" dataDxfId="84"/>
+    <tableColumn id="4" name="Heart" dataDxfId="83"/>
+    <tableColumn id="5" name="Star total" dataDxfId="82"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="81"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1981114135" displayName="Table1981114135" ref="A10:I25" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1981114135" displayName="Table1981114135" ref="A10:I25" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A10:I25"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="91"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="90"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="89"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="88"/>
-    <tableColumn id="11" name="Level" dataDxfId="87"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="86"/>
-    <tableColumn id="9" name="Time" dataDxfId="85"/>
-    <tableColumn id="10" name="Number" dataDxfId="84"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="83"/>
+    <tableColumn id="1" name="Wave" dataDxfId="77"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="76"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="75"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="74"/>
+    <tableColumn id="11" name="Level" dataDxfId="73"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="72"/>
+    <tableColumn id="9" name="Time" dataDxfId="71"/>
+    <tableColumn id="10" name="Number" dataDxfId="70"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table43221012151617" displayName="Table43221012151617" ref="A1:G3" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table43221012151617" displayName="Table43221012151617" ref="A1:G3" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="80"/>
-    <tableColumn id="2" name="Name" dataDxfId="79"/>
-    <tableColumn id="3" name="Money" dataDxfId="78"/>
-    <tableColumn id="4" name="Heart" dataDxfId="77"/>
-    <tableColumn id="5" name="Star total" dataDxfId="76"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="75"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="3"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="66"/>
+    <tableColumn id="2" name="Name" dataDxfId="65"/>
+    <tableColumn id="3" name="Money" dataDxfId="64"/>
+    <tableColumn id="4" name="Heart" dataDxfId="63"/>
+    <tableColumn id="5" name="Star total" dataDxfId="62"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="61"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table198111413523" displayName="Table198111413523" ref="A10:I28" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table198111413523" displayName="Table198111413523" ref="A10:I28" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A10:I28"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="72"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="71"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="70"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="69"/>
-    <tableColumn id="11" name="Level" dataDxfId="68"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="67"/>
-    <tableColumn id="9" name="Time" dataDxfId="66"/>
-    <tableColumn id="10" name="Number" dataDxfId="65"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="64"/>
+    <tableColumn id="1" name="Wave" dataDxfId="57"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="56"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="55"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="54"/>
+    <tableColumn id="11" name="Level" dataDxfId="53"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="52"/>
+    <tableColumn id="9" name="Time" dataDxfId="51"/>
+    <tableColumn id="10" name="Number" dataDxfId="50"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table4322101215161724" displayName="Table4322101215161724" ref="A1:G3" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table4322101215161724" displayName="Table4322101215161724" ref="A1:G3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="61"/>
-    <tableColumn id="2" name="Name" dataDxfId="60"/>
-    <tableColumn id="3" name="Money" dataDxfId="59"/>
-    <tableColumn id="4" name="Heart" dataDxfId="58"/>
-    <tableColumn id="5" name="Star total" dataDxfId="57"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="56"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="2"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="46"/>
+    <tableColumn id="2" name="Name" dataDxfId="45"/>
+    <tableColumn id="3" name="Money" dataDxfId="44"/>
+    <tableColumn id="4" name="Heart" dataDxfId="43"/>
+    <tableColumn id="5" name="Star total" dataDxfId="42"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="41"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1981114135232" displayName="Table1981114135232" ref="A10:I28" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1981114135232" displayName="Table1981114135232" ref="A10:I28" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A10:I28"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="53"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="52"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="51"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="50"/>
-    <tableColumn id="11" name="Level" dataDxfId="49"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="48"/>
-    <tableColumn id="9" name="Time" dataDxfId="47"/>
-    <tableColumn id="10" name="Number" dataDxfId="46"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="45"/>
+    <tableColumn id="1" name="Wave" dataDxfId="37"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="36"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="35"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="34"/>
+    <tableColumn id="11" name="Level" dataDxfId="33"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="32"/>
+    <tableColumn id="9" name="Time" dataDxfId="31"/>
+    <tableColumn id="10" name="Number" dataDxfId="30"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table43221012151617246" displayName="Table43221012151617246" ref="A1:G3" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table43221012151617246" displayName="Table43221012151617246" ref="A1:G3" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="42"/>
-    <tableColumn id="2" name="Name" dataDxfId="41"/>
-    <tableColumn id="3" name="Money" dataDxfId="40"/>
-    <tableColumn id="4" name="Heart" dataDxfId="39"/>
-    <tableColumn id="5" name="Star total" dataDxfId="38"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="37"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="1"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="26"/>
+    <tableColumn id="2" name="Name" dataDxfId="25"/>
+    <tableColumn id="3" name="Money" dataDxfId="24"/>
+    <tableColumn id="4" name="Heart" dataDxfId="23"/>
+    <tableColumn id="5" name="Star total" dataDxfId="22"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="21"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1981114135237" displayName="Table1981114135237" ref="A10:I28" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1981114135237" displayName="Table1981114135237" ref="A10:I28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A10:I28"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="34"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="33"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="32"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="31"/>
-    <tableColumn id="11" name="Level" dataDxfId="30"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="29"/>
-    <tableColumn id="9" name="Time" dataDxfId="28"/>
-    <tableColumn id="10" name="Number" dataDxfId="27"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="26"/>
+    <tableColumn id="1" name="Wave" dataDxfId="17"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="16"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="15"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="14"/>
+    <tableColumn id="11" name="Level" dataDxfId="13"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="12"/>
+    <tableColumn id="9" name="Time" dataDxfId="11"/>
+    <tableColumn id="10" name="Number" dataDxfId="10"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A10:I20" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A10:I20" totalsRowShown="0" headerRowDxfId="190" dataDxfId="189">
   <autoFilter ref="A10:I20"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="189"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="188"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="187"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="186"/>
-    <tableColumn id="11" name="Level" dataDxfId="185"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="184"/>
-    <tableColumn id="9" name="Time" dataDxfId="183"/>
-    <tableColumn id="10" name="Number" dataDxfId="182"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="181"/>
+    <tableColumn id="1" name="Wave" dataDxfId="188"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="187"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="186"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="185"/>
+    <tableColumn id="11" name="Level" dataDxfId="184"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="183"/>
+    <tableColumn id="9" name="Time" dataDxfId="182"/>
+    <tableColumn id="10" name="Number" dataDxfId="181"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table432210121516172418" displayName="Table432210121516172418" ref="A1:G3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table432210121516172418" displayName="Table432210121516172418" ref="A1:G3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="23"/>
-    <tableColumn id="2" name="Name" dataDxfId="22"/>
-    <tableColumn id="3" name="Money" dataDxfId="21"/>
-    <tableColumn id="4" name="Heart" dataDxfId="20"/>
-    <tableColumn id="5" name="Star total" dataDxfId="19"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="18"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="6"/>
+    <tableColumn id="2" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" name="Money" dataDxfId="4"/>
+    <tableColumn id="4" name="Heart" dataDxfId="3"/>
+    <tableColumn id="5" name="Star total" dataDxfId="2"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="1"/>
     <tableColumn id="8" name="Tower Used" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6341,120 +6341,120 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A10:I20" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="A10:I20" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
   <autoFilter ref="A10:I20"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="178"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="177"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="176"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="175"/>
-    <tableColumn id="11" name="Level" dataDxfId="174"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="173"/>
-    <tableColumn id="9" name="Time" dataDxfId="172"/>
-    <tableColumn id="10" name="Number" dataDxfId="171"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="170"/>
+    <tableColumn id="1" name="Wave" dataDxfId="177"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="176"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="175"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="174"/>
+    <tableColumn id="11" name="Level" dataDxfId="173"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="172"/>
+    <tableColumn id="9" name="Time" dataDxfId="171"/>
+    <tableColumn id="10" name="Number" dataDxfId="170"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table4322" displayName="Table4322" ref="A1:G3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table4322" displayName="Table4322" ref="A1:G3" totalsRowShown="0" headerRowDxfId="168" dataDxfId="167">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="14"/>
-    <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" name="Money" dataDxfId="12"/>
-    <tableColumn id="4" name="Heart" dataDxfId="11"/>
-    <tableColumn id="5" name="Star total" dataDxfId="10"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="9"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="8"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="166"/>
+    <tableColumn id="2" name="Name" dataDxfId="165"/>
+    <tableColumn id="3" name="Money" dataDxfId="164"/>
+    <tableColumn id="4" name="Heart" dataDxfId="163"/>
+    <tableColumn id="5" name="Star total" dataDxfId="162"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="161"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table198" displayName="Table198" ref="A10:I22" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table198" displayName="Table198" ref="A10:I22" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A10:I22"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="167"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="166"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="165"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="164"/>
-    <tableColumn id="11" name="Level" dataDxfId="163"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="162"/>
-    <tableColumn id="9" name="Time" dataDxfId="161"/>
-    <tableColumn id="10" name="Number" dataDxfId="160"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="159"/>
+    <tableColumn id="1" name="Wave" dataDxfId="157"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="156"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="155"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="154"/>
+    <tableColumn id="11" name="Level" dataDxfId="153"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="152"/>
+    <tableColumn id="9" name="Time" dataDxfId="151"/>
+    <tableColumn id="10" name="Number" dataDxfId="150"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table432210" displayName="Table432210" ref="A1:G3" totalsRowShown="0" headerRowDxfId="158" dataDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table432210" displayName="Table432210" ref="A1:G3" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="156"/>
-    <tableColumn id="2" name="Name" dataDxfId="155"/>
-    <tableColumn id="3" name="Money" dataDxfId="154"/>
-    <tableColumn id="4" name="Heart" dataDxfId="153"/>
-    <tableColumn id="5" name="Star total" dataDxfId="152"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="151"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="7"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="146"/>
+    <tableColumn id="2" name="Name" dataDxfId="145"/>
+    <tableColumn id="3" name="Money" dataDxfId="144"/>
+    <tableColumn id="4" name="Heart" dataDxfId="143"/>
+    <tableColumn id="5" name="Star total" dataDxfId="142"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="141"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table19811" displayName="Table19811" ref="A10:I22" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table19811" displayName="Table19811" ref="A10:I22" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="A10:I22"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="148"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="147"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="146"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="145"/>
-    <tableColumn id="11" name="Level" dataDxfId="144"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="143"/>
-    <tableColumn id="9" name="Time" dataDxfId="142"/>
-    <tableColumn id="10" name="Number" dataDxfId="141"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="140"/>
+    <tableColumn id="1" name="Wave" dataDxfId="137"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="136"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="135"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="134"/>
+    <tableColumn id="11" name="Level" dataDxfId="133"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="132"/>
+    <tableColumn id="9" name="Time" dataDxfId="131"/>
+    <tableColumn id="10" name="Number" dataDxfId="130"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table43221012" displayName="Table43221012" ref="A1:G3" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table43221012" displayName="Table43221012" ref="A1:G3" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Map ID" dataDxfId="137"/>
-    <tableColumn id="2" name="Name" dataDxfId="136"/>
-    <tableColumn id="3" name="Money" dataDxfId="135"/>
-    <tableColumn id="4" name="Heart" dataDxfId="134"/>
-    <tableColumn id="5" name="Star total" dataDxfId="133"/>
-    <tableColumn id="6" name="Total wave" dataDxfId="132"/>
-    <tableColumn id="7" name="Tower Used" dataDxfId="6"/>
+    <tableColumn id="1" name="Map ID" dataDxfId="126"/>
+    <tableColumn id="2" name="Name" dataDxfId="125"/>
+    <tableColumn id="3" name="Money" dataDxfId="124"/>
+    <tableColumn id="4" name="Heart" dataDxfId="123"/>
+    <tableColumn id="5" name="Star total" dataDxfId="122"/>
+    <tableColumn id="6" name="Total wave" dataDxfId="121"/>
+    <tableColumn id="7" name="Tower Used" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1981114" displayName="Table1981114" ref="A10:I25" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1981114" displayName="Table1981114" ref="A10:I25" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A10:I25"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Wave" dataDxfId="129"/>
-    <tableColumn id="3" name="has Boss" dataDxfId="128"/>
-    <tableColumn id="4" name="Time Wave" dataDxfId="127"/>
-    <tableColumn id="5" name="Time Enemy" dataDxfId="126"/>
-    <tableColumn id="11" name="Level" dataDxfId="125"/>
-    <tableColumn id="8" name="Enemies" dataDxfId="124"/>
-    <tableColumn id="9" name="Time" dataDxfId="123"/>
-    <tableColumn id="10" name="Number" dataDxfId="122"/>
-    <tableColumn id="2" name="Total Enemy" dataDxfId="121"/>
+    <tableColumn id="1" name="Wave" dataDxfId="117"/>
+    <tableColumn id="3" name="has Boss" dataDxfId="116"/>
+    <tableColumn id="4" name="Time Wave" dataDxfId="115"/>
+    <tableColumn id="5" name="Time Enemy" dataDxfId="114"/>
+    <tableColumn id="11" name="Level" dataDxfId="113"/>
+    <tableColumn id="8" name="Enemies" dataDxfId="112"/>
+    <tableColumn id="9" name="Time" dataDxfId="111"/>
+    <tableColumn id="10" name="Number" dataDxfId="110"/>
+    <tableColumn id="2" name="Total Enemy" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6503,7 +6503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6538,7 +6538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6749,8 +6749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6786,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6809,7 +6809,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6845,7 +6845,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -6865,13 +6865,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I11" s="6">
         <v>5</v>
@@ -6894,10 +6894,10 @@
         <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>26</v>
@@ -6923,13 +6923,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I13" s="6">
         <v>5</v>
@@ -6952,7 +6952,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>25</v>
@@ -6981,13 +6981,13 @@
         <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="I15" s="6">
         <v>5</v>
@@ -7007,16 +7007,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="I16" s="6">
         <v>5</v>
@@ -7036,16 +7036,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -7065,16 +7065,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
@@ -7094,16 +7094,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I19" s="6">
         <v>6</v>
@@ -7123,16 +7123,16 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I20" s="6">
         <v>6</v>
@@ -7151,8 +7151,642 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>600</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>14</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>18</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="8">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7188,30 +7822,30 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>400</v>
+      </c>
+      <c r="D2" s="2">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>600</v>
-      </c>
-      <c r="D2" s="2">
-        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7247,7 +7881,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -7261,19 +7895,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -7290,19 +7924,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
@@ -7319,25 +7953,25 @@
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -7348,83 +7982,83 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6</v>
       </c>
       <c r="B16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -7438,22 +8072,22 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -7467,16 +8101,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
@@ -7487,7 +8121,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -7496,16 +8130,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -7516,7 +8150,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -7525,251 +8159,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>13</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I23" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>14</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>15</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I25" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>16</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I26" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>17</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I27" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>18</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I28" s="8">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7781,12 +8183,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7822,18 +8224,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -7842,10 +8244,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7881,7 +8283,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -7895,19 +8297,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -7924,19 +8326,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
@@ -7953,19 +8355,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
@@ -7982,77 +8384,77 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
@@ -8072,22 +8474,22 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -8101,16 +8503,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
@@ -8121,7 +8523,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -8130,418 +8532,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="6">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="2">
-        <v>450</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -8561,16 +8561,16 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
@@ -8590,16 +8590,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
@@ -8619,16 +8619,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
@@ -8647,8 +8647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8656,7 +8656,7 @@
     <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -8684,7 +8684,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8707,7 +8707,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8743,7 +8743,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -8760,16 +8760,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -8789,22 +8789,22 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -8818,16 +8818,16 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
@@ -8847,16 +8847,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
@@ -8876,16 +8876,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
@@ -8905,22 +8905,22 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -8934,16 +8934,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -8963,16 +8963,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
@@ -8992,16 +8992,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -9021,22 +9021,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -9050,22 +9050,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -9079,16 +9079,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
@@ -9137,8 +9137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9146,7 +9146,7 @@
     <col min="1" max="2" width="11.5703125" style="7" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="7" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" bestFit="1" customWidth="1"/>
@@ -9174,7 +9174,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -9184,7 +9184,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -9199,7 +9199,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -9307,7 +9307,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -9324,16 +9324,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -9353,22 +9353,22 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -9382,22 +9382,22 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -9411,22 +9411,22 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -9440,16 +9440,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
@@ -9469,22 +9469,22 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -9498,16 +9498,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -9527,22 +9527,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
@@ -9556,22 +9556,22 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>10</v>
       </c>
@@ -9585,22 +9585,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -9614,22 +9614,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -9643,22 +9643,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -9672,22 +9672,22 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I23" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -9701,22 +9701,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I24" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>15</v>
       </c>
@@ -9730,16 +9730,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I25" s="8">
         <v>9</v>
@@ -9758,8 +9758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9767,7 +9767,7 @@
     <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9818,7 +9818,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -9871,16 +9871,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -9900,22 +9900,22 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -9929,22 +9929,22 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -9958,16 +9958,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
@@ -9987,16 +9987,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
@@ -10016,16 +10016,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
@@ -10045,16 +10045,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -10074,22 +10074,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
@@ -10103,16 +10103,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -10132,22 +10132,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -10161,22 +10161,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -10190,22 +10190,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -10219,22 +10219,22 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I23" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -10248,22 +10248,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I24" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>15</v>
       </c>
@@ -10277,16 +10277,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I25" s="8">
         <v>9</v>
@@ -10305,8 +10305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10314,7 +10314,7 @@
     <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -10342,7 +10342,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10401,10 +10401,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -10418,16 +10418,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -10447,22 +10447,22 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -10476,22 +10476,22 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -10505,16 +10505,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
@@ -10534,16 +10534,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
@@ -10563,16 +10563,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
@@ -10592,16 +10592,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -10621,22 +10621,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
@@ -10650,16 +10650,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -10679,22 +10679,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -10708,22 +10708,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -10737,22 +10737,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -10766,22 +10766,22 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I23" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -10795,22 +10795,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I24" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>15</v>
       </c>
@@ -10824,16 +10824,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I25" s="8">
         <v>9</v>
@@ -10853,8 +10853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10862,7 +10862,7 @@
     <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -10890,7 +10890,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10898,7 +10898,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2">
         <v>600</v>
@@ -10913,7 +10913,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10949,10 +10949,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -10966,16 +10966,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -10995,22 +10995,22 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -11024,22 +11024,22 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -11053,22 +11053,22 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -11082,16 +11082,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
@@ -11111,16 +11111,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
@@ -11140,16 +11140,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -11169,22 +11169,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
@@ -11198,16 +11198,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -11227,22 +11227,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -11256,22 +11256,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -11285,22 +11285,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -11314,22 +11314,22 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I23" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -11343,22 +11343,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I24" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>15</v>
       </c>
@@ -11372,22 +11372,22 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I25" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>16</v>
       </c>
@@ -11401,22 +11401,22 @@
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I26" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>17</v>
       </c>
@@ -11430,22 +11430,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I27" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>18</v>
       </c>
@@ -11459,16 +11459,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I28" s="8">
         <v>9</v>
@@ -11487,8 +11487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11496,7 +11496,7 @@
     <col min="1" max="2" width="11.5703125" style="7" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="7" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" bestFit="1" customWidth="1"/>
@@ -11524,7 +11524,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -11549,7 +11549,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -11657,10 +11657,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -11674,16 +11674,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="I11" s="6">
         <v>6</v>
@@ -11703,22 +11703,22 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -11732,22 +11732,22 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -11761,16 +11761,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
@@ -11790,16 +11790,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
@@ -11819,16 +11819,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
@@ -11848,16 +11848,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -11877,22 +11877,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
@@ -11906,16 +11906,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
@@ -11935,22 +11935,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -11964,22 +11964,22 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -11993,22 +11993,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -12022,22 +12022,22 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I23" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -12051,22 +12051,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I24" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>15</v>
       </c>
@@ -12080,22 +12080,22 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I25" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>16</v>
       </c>
@@ -12109,22 +12109,22 @@
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I26" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>17</v>
       </c>
@@ -12138,22 +12138,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I27" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>18</v>
       </c>
@@ -12167,16 +12167,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I28" s="8">
         <v>9</v>
